--- a/data/trans_orig/P29-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P29-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>109842</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90698</v>
+        <v>92858</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129882</v>
+        <v>131462</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2318437290790072</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1914374670049679</v>
+        <v>0.1959956193168039</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2741424821746666</v>
+        <v>0.2774769355641921</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>111</v>
@@ -765,19 +765,19 @@
         <v>114957</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>98399</v>
+        <v>98864</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>133675</v>
+        <v>133146</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3748427506927662</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3208523181431603</v>
+        <v>0.3223678292901268</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4358761727389711</v>
+        <v>0.4341542060897112</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>214</v>
@@ -786,19 +786,19 @@
         <v>224799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>197969</v>
+        <v>200834</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>248301</v>
+        <v>252465</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2880351719308719</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2536582470496219</v>
+        <v>0.2573281505388143</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3181483209329197</v>
+        <v>0.323483280730864</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>74128</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59054</v>
+        <v>59998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91031</v>
+        <v>91187</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1564615274837596</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1246450812770678</v>
+        <v>0.1266378098904616</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1921396075507297</v>
+        <v>0.1924688058104409</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -836,19 +836,19 @@
         <v>63659</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51439</v>
+        <v>50987</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>78867</v>
+        <v>77245</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2075745979753091</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1677271645408553</v>
+        <v>0.1662562365081716</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2571652555866265</v>
+        <v>0.2518734677421637</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>137</v>
@@ -857,19 +857,19 @@
         <v>137787</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>118327</v>
+        <v>118900</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>157825</v>
+        <v>160493</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1765464004227286</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1516130474153683</v>
+        <v>0.152346591497192</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2022211883985502</v>
+        <v>0.2056395068436045</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>289806</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>268135</v>
+        <v>268598</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>311427</v>
+        <v>310883</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6116947434372332</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.56595379831105</v>
+        <v>0.5669310246804522</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6573286185470227</v>
+        <v>0.6561805694967211</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>124</v>
@@ -907,19 +907,19 @@
         <v>128064</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>110769</v>
+        <v>111753</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>146415</v>
+        <v>145292</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4175826513319247</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.361187338725781</v>
+        <v>0.3643957376352274</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4774210619238909</v>
+        <v>0.4737576401941962</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>402</v>
@@ -928,19 +928,19 @@
         <v>417871</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>389407</v>
+        <v>387114</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>446957</v>
+        <v>442670</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5354184276463995</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.498947128902929</v>
+        <v>0.49600993543558</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5726856321079242</v>
+        <v>0.5671935981585038</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>86185</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>68673</v>
+        <v>69140</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>104154</v>
+        <v>105095</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2348779508623969</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1871533433609115</v>
+        <v>0.1884251125710088</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2838484720017245</v>
+        <v>0.2864133856221898</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>147</v>
@@ -1053,19 +1053,19 @@
         <v>153184</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>135676</v>
+        <v>133231</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>173766</v>
+        <v>171905</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4119335782662359</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3648515076048985</v>
+        <v>0.3582776878281769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4672816654664094</v>
+        <v>0.4622786516400667</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>229</v>
@@ -1074,19 +1074,19 @@
         <v>239368</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>215339</v>
+        <v>214156</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>267295</v>
+        <v>264145</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3239965969285999</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2914720671817807</v>
+        <v>0.2898710538129385</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3617968337182729</v>
+        <v>0.357532955823609</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>57538</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>43323</v>
+        <v>45023</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>72317</v>
+        <v>73878</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1568086318649232</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1180688482571918</v>
+        <v>0.1226999755370376</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.197084836208458</v>
+        <v>0.2013378701514134</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>66</v>
@@ -1124,19 +1124,19 @@
         <v>64819</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50933</v>
+        <v>52163</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>79118</v>
+        <v>81659</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1743088827768134</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1369668549279722</v>
+        <v>0.1402727817223308</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2127597984782539</v>
+        <v>0.2195941424217764</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>120</v>
@@ -1145,19 +1145,19 @@
         <v>122358</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>102265</v>
+        <v>102363</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>144775</v>
+        <v>143857</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1656171554343507</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1384209232860576</v>
+        <v>0.1385527191539207</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1959596339013176</v>
+        <v>0.194716845094674</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>223211</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>204217</v>
+        <v>203985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>244021</v>
+        <v>242358</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.60831341727268</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5565508319826418</v>
+        <v>0.5559176496154677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6650259238281329</v>
+        <v>0.6604949632292697</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>150</v>
@@ -1195,19 +1195,19 @@
         <v>153862</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>134277</v>
+        <v>133745</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>173295</v>
+        <v>172641</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4137575389569506</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3610917348182665</v>
+        <v>0.3596596334666421</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4660162594627895</v>
+        <v>0.4642578721496844</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>364</v>
@@ -1216,19 +1216,19 @@
         <v>377073</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>349049</v>
+        <v>349809</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>403574</v>
+        <v>402201</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5103862476370494</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4724542978522603</v>
+        <v>0.4734838540941866</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5462571181531076</v>
+        <v>0.5443978158095788</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>130643</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>110831</v>
+        <v>110359</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>151252</v>
+        <v>152678</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2408660682599823</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2043379566470351</v>
+        <v>0.2034682020887246</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2788622514362496</v>
+        <v>0.2814923868828736</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>61</v>
@@ -1341,19 +1341,19 @@
         <v>62250</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50185</v>
+        <v>49382</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74249</v>
+        <v>74043</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3710179270670221</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2991060160011066</v>
+        <v>0.2943195691132376</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4425342927725699</v>
+        <v>0.4413064785301524</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>186</v>
@@ -1362,19 +1362,19 @@
         <v>192893</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>171024</v>
+        <v>168273</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>217601</v>
+        <v>216614</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2716151795164727</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2408206900682164</v>
+        <v>0.236947547445718</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3064066693236223</v>
+        <v>0.3050165001751474</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>72972</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57666</v>
+        <v>57396</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88874</v>
+        <v>89823</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1345378306846626</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1063180426114673</v>
+        <v>0.1058213893002678</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1638562840303774</v>
+        <v>0.1656070534395318</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -1412,19 +1412,19 @@
         <v>43758</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32514</v>
+        <v>32221</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56622</v>
+        <v>55013</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2608020360277937</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1937843025713872</v>
+        <v>0.1920421918380175</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3374725253235481</v>
+        <v>0.3278813192528955</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -1433,19 +1433,19 @@
         <v>116730</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98022</v>
+        <v>98136</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>136774</v>
+        <v>137625</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1643684618673061</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1380260632773446</v>
+        <v>0.1381865232038167</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.192592644958679</v>
+        <v>0.193790907326182</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>338774</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>313399</v>
+        <v>315075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360896</v>
+        <v>360165</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.624596101055355</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5778122936064555</v>
+        <v>0.580901711248717</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6653830118854037</v>
+        <v>0.6640336316801323</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -1483,19 +1483,19 @@
         <v>61774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51148</v>
+        <v>49978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74965</v>
+        <v>74951</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3681800369051842</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3048509022786787</v>
+        <v>0.297876586690359</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4468028769278738</v>
+        <v>0.4467137403394617</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>396</v>
@@ -1504,19 +1504,19 @@
         <v>400548</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>374516</v>
+        <v>375851</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>425245</v>
+        <v>428341</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5640163586162212</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5273605286258152</v>
+        <v>0.5292395306109734</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5987924376050698</v>
+        <v>0.6031514941119689</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>333145</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>300766</v>
+        <v>303842</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>365300</v>
+        <v>368029</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2690268261767264</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2428794573748025</v>
+        <v>0.2453638769230131</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.294992827442285</v>
+        <v>0.2971965577838308</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>333</v>
@@ -1629,19 +1629,19 @@
         <v>345271</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>316369</v>
+        <v>319958</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>369988</v>
+        <v>373549</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4833800784367629</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4429175920992853</v>
+        <v>0.4479415059921916</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5179835072258729</v>
+        <v>0.5229685650912275</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>659</v>
@@ -1650,19 +1650,19 @@
         <v>678417</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>633393</v>
+        <v>638184</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>719367</v>
+        <v>724016</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3474391156594152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3243809555827981</v>
+        <v>0.3268346004501512</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3684109218119015</v>
+        <v>0.370792190847708</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>235650</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>206576</v>
+        <v>209301</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>261797</v>
+        <v>264137</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1902960639002876</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1668174484579469</v>
+        <v>0.1690178813857714</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2114107190018941</v>
+        <v>0.2133003612152749</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>175</v>
@@ -1700,19 +1700,19 @@
         <v>175688</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>153601</v>
+        <v>152141</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198652</v>
+        <v>196710</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.245964083604764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2150414388751798</v>
+        <v>0.2129980854089974</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2781134296009172</v>
+        <v>0.2753945475688624</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>411</v>
@@ -1721,19 +1721,19 @@
         <v>411339</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>376329</v>
+        <v>376068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>447481</v>
+        <v>447672</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2106599111009826</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1927302255378048</v>
+        <v>0.192596758938644</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2291693768942235</v>
+        <v>0.2292672694594096</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>669539</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>634788</v>
+        <v>632247</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>706863</v>
+        <v>702729</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.540677109922986</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5126147456674991</v>
+        <v>0.5105625573619672</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5708176412987892</v>
+        <v>0.5674797592743144</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>186</v>
@@ -1771,19 +1771,19 @@
         <v>193325</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>168947</v>
+        <v>169646</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>217791</v>
+        <v>215654</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2706558379584731</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2365262831993467</v>
+        <v>0.2375047995371954</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3049082517520852</v>
+        <v>0.3019158662790442</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>848</v>
@@ -1792,19 +1792,19 @@
         <v>862865</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>820883</v>
+        <v>815550</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>905801</v>
+        <v>912754</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4419009732396022</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4204009784654815</v>
+        <v>0.4176697080756095</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4638901397516142</v>
+        <v>0.4674511252268593</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>92989</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>76755</v>
+        <v>73994</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111375</v>
+        <v>110298</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2652626288105298</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2189533818622161</v>
+        <v>0.2110771684726664</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3177103496820349</v>
+        <v>0.3146378262041721</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>296</v>
@@ -1917,19 +1917,19 @@
         <v>316066</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>293559</v>
+        <v>292432</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>341844</v>
+        <v>337968</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5557192394686609</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5161467545810369</v>
+        <v>0.5141634993854778</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6010421899751031</v>
+        <v>0.5942274245502202</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>384</v>
@@ -1938,19 +1938,19 @@
         <v>409056</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>379750</v>
+        <v>379443</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>438968</v>
+        <v>441850</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4449607189357986</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4130831427522961</v>
+        <v>0.4127494798156656</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4774987441131427</v>
+        <v>0.4806339635914155</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>41500</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30213</v>
+        <v>31190</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>54480</v>
+        <v>56047</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1183837825147007</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0861848003469409</v>
+        <v>0.0889729943132772</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1554108280358163</v>
+        <v>0.159880962082361</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>111</v>
@@ -1988,19 +1988,19 @@
         <v>112291</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>92450</v>
+        <v>92874</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>130477</v>
+        <v>129952</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.197433599593014</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1625487027916691</v>
+        <v>0.1632941981043245</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2294098325999985</v>
+        <v>0.2284858191429079</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>153</v>
@@ -2009,19 +2009,19 @@
         <v>153791</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>131857</v>
+        <v>132475</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>177293</v>
+        <v>176159</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1672898863266888</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1434311330370268</v>
+        <v>0.144103315515543</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1928553381211569</v>
+        <v>0.1916215062494857</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>216066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>196415</v>
+        <v>198189</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>233490</v>
+        <v>236125</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6163535886747694</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5602967432482925</v>
+        <v>0.565358282251179</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6660587257948423</v>
+        <v>0.6735736088266002</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>132</v>
@@ -2059,19 +2059,19 @@
         <v>140395</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120514</v>
+        <v>120980</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>161763</v>
+        <v>162991</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2468471609383252</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2118912984627632</v>
+        <v>0.2127107361010074</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2844178277854703</v>
+        <v>0.2865773961959877</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>342</v>
@@ -2080,19 +2080,19 @@
         <v>356461</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>326406</v>
+        <v>327431</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>390286</v>
+        <v>390371</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3877493947375127</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3550562227992361</v>
+        <v>0.356171213545554</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4245433412562916</v>
+        <v>0.4246363001362963</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>98390</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>84318</v>
+        <v>82318</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>117838</v>
+        <v>114044</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3299458827431705</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.282756284919939</v>
+        <v>0.2760471481262673</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3951621546913404</v>
+        <v>0.3824400819835165</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>771</v>
@@ -2205,19 +2205,19 @@
         <v>794161</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>762585</v>
+        <v>760045</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>824393</v>
+        <v>829928</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6359594388130391</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6106735929473941</v>
+        <v>0.6086399643418795</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.660169395308462</v>
+        <v>0.6646015998973368</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>871</v>
@@ -2226,19 +2226,19 @@
         <v>892550</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>855024</v>
+        <v>852435</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>932764</v>
+        <v>929102</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5769705909128822</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5527123855688375</v>
+        <v>0.551038524364573</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6029661244572113</v>
+        <v>0.6005989160032468</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>60299</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47638</v>
+        <v>47542</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75602</v>
+        <v>74080</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2022099654636862</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1597509550179043</v>
+        <v>0.1594308774011788</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2535282178271275</v>
+        <v>0.2484215764996692</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>245</v>
@@ -2276,19 +2276,19 @@
         <v>236499</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>213058</v>
+        <v>208627</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>262410</v>
+        <v>264133</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1893872213473171</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1706156216725499</v>
+        <v>0.1670677228922275</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2101363183023815</v>
+        <v>0.2115164249902822</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>308</v>
@@ -2297,19 +2297,19 @@
         <v>296798</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>266983</v>
+        <v>269304</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>328404</v>
+        <v>328313</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1918590036829023</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1725858468924454</v>
+        <v>0.1740858868760172</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2122896912735326</v>
+        <v>0.2122309057887885</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>139512</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>122194</v>
+        <v>122397</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>157216</v>
+        <v>156435</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4678441517931433</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4097720287523546</v>
+        <v>0.4104515996363097</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5272150660786039</v>
+        <v>0.5245960671607975</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>222</v>
@@ -2347,19 +2347,19 @@
         <v>218100</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>193302</v>
+        <v>189903</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>242821</v>
+        <v>243801</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1746533398396438</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1547953656196717</v>
+        <v>0.152073509472277</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1944498690314013</v>
+        <v>0.1952348288182169</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>365</v>
@@ -2368,19 +2368,19 @@
         <v>357611</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>326800</v>
+        <v>324533</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>390121</v>
+        <v>391022</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2311704054042155</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2112528205594719</v>
+        <v>0.2097876994352483</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2521855942129945</v>
+        <v>0.2527679502262926</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>851194</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>802592</v>
+        <v>801483</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>903940</v>
+        <v>902320</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2602889792196441</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2454267749133509</v>
+        <v>0.2450875221444787</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2764181986874479</v>
+        <v>0.2759229158564619</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1719</v>
@@ -2493,19 +2493,19 @@
         <v>1785889</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1735407</v>
+        <v>1731466</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1852618</v>
+        <v>1844443</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5286628849494304</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5137191170774804</v>
+        <v>0.5125525987383416</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5484161041078894</v>
+        <v>0.5459961500647083</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2543</v>
@@ -2514,19 +2514,19 @@
         <v>2637083</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2552952</v>
+        <v>2560446</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2714404</v>
+        <v>2711586</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3966544298905836</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3839999105231491</v>
+        <v>0.3851270939771618</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4082845731957302</v>
+        <v>0.4078606720519614</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>542087</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>499496</v>
+        <v>502172</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>584614</v>
+        <v>586216</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1657663425812348</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1527421079505857</v>
+        <v>0.1535605697553241</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1787707886298343</v>
+        <v>0.1792606321281514</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>702</v>
@@ -2564,19 +2564,19 @@
         <v>696715</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>649138</v>
+        <v>651411</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>740551</v>
+        <v>746586</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2062430680424915</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1921592673628476</v>
+        <v>0.1928323117538893</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2192195266926164</v>
+        <v>0.2210060875052524</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1243</v>
@@ -2585,19 +2585,19 @@
         <v>1238802</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1179531</v>
+        <v>1185840</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1304093</v>
+        <v>1302342</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1863332710022327</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1774181336823577</v>
+        <v>0.1783670884289648</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.196154000490118</v>
+        <v>0.1958905441062883</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>1876908</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1819205</v>
+        <v>1820893</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1935379</v>
+        <v>1931587</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5739446781991211</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5562993758042267</v>
+        <v>0.5568156857831857</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5918246512217787</v>
+        <v>0.5906649294667301</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>875</v>
@@ -2635,19 +2635,19 @@
         <v>895521</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>846506</v>
+        <v>846213</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>953953</v>
+        <v>947088</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.265094047008078</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.250584716469019</v>
+        <v>0.2504980378846902</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2823914117513236</v>
+        <v>0.2803591574982457</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2717</v>
@@ -2656,19 +2656,19 @@
         <v>2772429</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2696209</v>
+        <v>2694782</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2850130</v>
+        <v>2856326</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4170122991071836</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4055478315858213</v>
+        <v>0.4053331424481226</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4286997218869799</v>
+        <v>0.4296316355022826</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>79924</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63390</v>
+        <v>64236</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97552</v>
+        <v>97682</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1828045141815459</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1449866303546908</v>
+        <v>0.1469214970644087</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2231242735178049</v>
+        <v>0.2234205132914216</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>113</v>
@@ -3023,19 +3023,19 @@
         <v>126456</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>107594</v>
+        <v>108225</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>145801</v>
+        <v>146587</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4021457263230143</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3421613834603988</v>
+        <v>0.3441666359201864</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4636624154143899</v>
+        <v>0.4661622299783751</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>188</v>
@@ -3044,19 +3044,19 @@
         <v>206381</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>182578</v>
+        <v>181292</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>234160</v>
+        <v>230470</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2745645059295579</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.24289829335492</v>
+        <v>0.2411875818384377</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3115212971268989</v>
+        <v>0.3066130703064122</v>
       </c>
     </row>
     <row r="5">
@@ -3073,19 +3073,19 @@
         <v>63820</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49206</v>
+        <v>49611</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81868</v>
+        <v>82367</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1459705102889744</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1125446136836844</v>
+        <v>0.1134708264155211</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1872498608700894</v>
+        <v>0.1883915711360811</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -3094,19 +3094,19 @@
         <v>38860</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28384</v>
+        <v>27801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53704</v>
+        <v>52279</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1235780100149014</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09026452976810478</v>
+        <v>0.08841193180793121</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1707851580731869</v>
+        <v>0.1662517896229776</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -3115,19 +3115,19 @@
         <v>102680</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>85361</v>
+        <v>84090</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>123778</v>
+        <v>124168</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1366027511692653</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1135626909820288</v>
+        <v>0.1118712365223694</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1646718510493109</v>
+        <v>0.1651911359340399</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>293467</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>273036</v>
+        <v>271187</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>314091</v>
+        <v>312783</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6712249755294797</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.624494186435112</v>
+        <v>0.6202666594883719</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7183975779781323</v>
+        <v>0.7154055514203199</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>135</v>
@@ -3165,19 +3165,19 @@
         <v>149138</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>130010</v>
+        <v>127584</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>166738</v>
+        <v>166567</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4742762636620843</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4134472920992743</v>
+        <v>0.4057325017729249</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5302471764787183</v>
+        <v>0.5297019747927278</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>408</v>
@@ -3186,19 +3186,19 @@
         <v>442605</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>414942</v>
+        <v>412863</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>469706</v>
+        <v>469532</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5888327429011768</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.552029903558074</v>
+        <v>0.5492644092925333</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6248879301414566</v>
+        <v>0.6246565883472707</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>107032</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>87237</v>
+        <v>87510</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>128575</v>
+        <v>129409</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.255570516831007</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.208304602582546</v>
+        <v>0.2089555978206281</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3070091768196815</v>
+        <v>0.30900117524816</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>138</v>
@@ -3311,19 +3311,19 @@
         <v>155700</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>136449</v>
+        <v>135736</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>175142</v>
+        <v>176492</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4606363592355415</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4036835470710077</v>
+        <v>0.4015736069535248</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5181536615836538</v>
+        <v>0.5221497937475151</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>230</v>
@@ -3332,19 +3332,19 @@
         <v>262732</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>236160</v>
+        <v>235602</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>291563</v>
+        <v>293572</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.347158509436201</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3120472444830916</v>
+        <v>0.3113107423443268</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3852529374451956</v>
+        <v>0.3879077378021142</v>
       </c>
     </row>
     <row r="9">
@@ -3361,19 +3361,19 @@
         <v>57316</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>44548</v>
+        <v>43736</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>74131</v>
+        <v>74460</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1368577231797325</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1063712762052383</v>
+        <v>0.1044325669460806</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1770094752851571</v>
+        <v>0.1777941332582639</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>38</v>
@@ -3382,19 +3382,19 @@
         <v>39796</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>29515</v>
+        <v>29318</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>52948</v>
+        <v>52330</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1177349110172623</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08732110341385672</v>
+        <v>0.0867377047370561</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1566469179806577</v>
+        <v>0.1548168603197432</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>91</v>
@@ -3403,19 +3403,19 @@
         <v>97111</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>78383</v>
+        <v>75510</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>115816</v>
+        <v>115087</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.128316954232597</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1035698965379219</v>
+        <v>0.09977424284817543</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1530326912911724</v>
+        <v>0.1520685017363893</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>254449</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>233498</v>
+        <v>231017</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>277206</v>
+        <v>276031</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6075717599892605</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5575455002513291</v>
+        <v>0.5516216169915212</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6619096114223362</v>
+        <v>0.6591046105233127</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -3453,19 +3453,19 @@
         <v>142515</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>123259</v>
+        <v>121667</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>161435</v>
+        <v>161748</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4216287297471962</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3646593103984443</v>
+        <v>0.3599491996441143</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.477603125996955</v>
+        <v>0.4785293943731957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>359</v>
@@ -3474,19 +3474,19 @@
         <v>396964</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>369382</v>
+        <v>365602</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>427879</v>
+        <v>426149</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.524524536331202</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.48807878024585</v>
+        <v>0.4830846981105696</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5653730196758067</v>
+        <v>0.5630867712848413</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>160458</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>136887</v>
+        <v>139757</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>183428</v>
+        <v>184909</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2549312324601266</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2174823056134792</v>
+        <v>0.2220419995098967</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.291425381499695</v>
+        <v>0.2937799022667586</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>140</v>
@@ -3599,19 +3599,19 @@
         <v>147381</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>131090</v>
+        <v>132548</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>164078</v>
+        <v>163876</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5665673165141407</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.503940611114272</v>
+        <v>0.5095488801970124</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6307576571539237</v>
+        <v>0.6299781044271633</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>288</v>
@@ -3620,19 +3620,19 @@
         <v>307838</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>279692</v>
+        <v>280323</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>337001</v>
+        <v>338705</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3460629742901101</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3144217841898004</v>
+        <v>0.3151310796801577</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3788467886973589</v>
+        <v>0.3807621577045093</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>80737</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64402</v>
+        <v>62698</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>98109</v>
+        <v>97344</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1282735511399191</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1023202730485508</v>
+        <v>0.09961266629813792</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1558733054442804</v>
+        <v>0.1546582809861899</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -3670,19 +3670,19 @@
         <v>33200</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23239</v>
+        <v>23501</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45569</v>
+        <v>44594</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1276302280174455</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08933625502757547</v>
+        <v>0.09034382661766514</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1751796680483269</v>
+        <v>0.1714296297639595</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -3691,19 +3691,19 @@
         <v>113938</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95742</v>
+        <v>94601</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>135130</v>
+        <v>137884</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1280854241555601</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1076300617347701</v>
+        <v>0.10634724158135</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1519091180156233</v>
+        <v>0.1550050001177391</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>388220</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>361484</v>
+        <v>362787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>411231</v>
+        <v>413549</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6167952163999544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5743177604639889</v>
+        <v>0.5763869450400909</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6533549904799615</v>
+        <v>0.6570364517504117</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -3741,19 +3741,19 @@
         <v>79548</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64710</v>
+        <v>65121</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94426</v>
+        <v>93761</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3058024554684137</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2487606665504523</v>
+        <v>0.250339587370377</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3629957588743822</v>
+        <v>0.3604407897729681</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>439</v>
@@ -3762,19 +3762,19 @@
         <v>467768</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>438408</v>
+        <v>435546</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>496676</v>
+        <v>496337</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5258516015543298</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.492846136265733</v>
+        <v>0.4896284587517888</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5583489466405165</v>
+        <v>0.5579684122124079</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>348790</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>317954</v>
+        <v>318454</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>382611</v>
+        <v>381843</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3009378795910504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2743325811988042</v>
+        <v>0.274764328237355</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3301193118214631</v>
+        <v>0.3294565916486515</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>384</v>
@@ -3887,19 +3887,19 @@
         <v>412084</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>386629</v>
+        <v>384689</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>441647</v>
+        <v>441999</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5382104901243577</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5049638387062371</v>
+        <v>0.5024300169735065</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5768217650530955</v>
+        <v>0.577280828151456</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>708</v>
@@ -3908,19 +3908,19 @@
         <v>760874</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>718502</v>
+        <v>717669</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>807579</v>
+        <v>804561</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3953278860462693</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3733126381331133</v>
+        <v>0.3728800554727563</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4195944383630874</v>
+        <v>0.4180265339283391</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>146431</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>126426</v>
+        <v>125938</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169490</v>
+        <v>171451</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1263413987581662</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1090813082950493</v>
+        <v>0.1086596492453089</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1462368132372777</v>
+        <v>0.1479292801994412</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>115</v>
@@ -3958,19 +3958,19 @@
         <v>122357</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>101758</v>
+        <v>101074</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>143699</v>
+        <v>143809</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1598065916532201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1329035563288114</v>
+        <v>0.1320099168104947</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1876809496507511</v>
+        <v>0.1878249876906634</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>256</v>
@@ -3979,19 +3979,19 @@
         <v>268788</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>237996</v>
+        <v>236992</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>303439</v>
+        <v>305260</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1396542702534873</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1236556919461255</v>
+        <v>0.1231342497766949</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1576579823016769</v>
+        <v>0.1586043279699901</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>663788</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>629499</v>
+        <v>628509</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>701306</v>
+        <v>697929</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5727207216507834</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5431357587535631</v>
+        <v>0.5422817441842313</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6050909132767871</v>
+        <v>0.6021773676030333</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>211</v>
@@ -4029,19 +4029,19 @@
         <v>231215</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>206628</v>
+        <v>206465</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>257030</v>
+        <v>260192</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3019829182224222</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2698710962763256</v>
+        <v>0.2696572448587284</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3356988175086094</v>
+        <v>0.3398293449462181</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>829</v>
@@ -4050,19 +4050,19 @@
         <v>895004</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>848875</v>
+        <v>850933</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>937801</v>
+        <v>940432</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4650178437002434</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4410509180236852</v>
+        <v>0.4421201052818998</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4872541774920907</v>
+        <v>0.4886212492666818</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>153843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>134605</v>
+        <v>133250</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>175808</v>
+        <v>175769</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3013016136542902</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2636236748671613</v>
+        <v>0.2609695924863382</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3443186693121074</v>
+        <v>0.3442422562636426</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>447</v>
@@ -4175,19 +4175,19 @@
         <v>481605</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>451744</v>
+        <v>453889</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>509388</v>
+        <v>509566</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6324243034923686</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5932114215715869</v>
+        <v>0.5960287960808649</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6689071540522374</v>
+        <v>0.6691410416240743</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>590</v>
@@ -4196,19 +4196,19 @@
         <v>635448</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>598878</v>
+        <v>602094</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>671528</v>
+        <v>672657</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4995199531489826</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4707724196004643</v>
+        <v>0.4733005970477671</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5278817499016686</v>
+        <v>0.5287696185788667</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>52632</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>40407</v>
+        <v>40194</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>69477</v>
+        <v>69059</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1030791392747249</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07913729787136582</v>
+        <v>0.07871907822842325</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.136069931017888</v>
+        <v>0.1352518793273657</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>86</v>
@@ -4246,19 +4246,19 @@
         <v>93747</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>76389</v>
+        <v>76565</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>114269</v>
+        <v>114925</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1231044286844996</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1003107392033087</v>
+        <v>0.1005424896396078</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1500533172251454</v>
+        <v>0.1509144649660909</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>136</v>
@@ -4267,19 +4267,19 @@
         <v>146379</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>124211</v>
+        <v>123413</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>171090</v>
+        <v>169000</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1150667793142741</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09764133522108379</v>
+        <v>0.09701406756135296</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1344925195224471</v>
+        <v>0.1328495693985468</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>304121</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>280073</v>
+        <v>281253</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>323446</v>
+        <v>326067</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5956192470709849</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5485220357242891</v>
+        <v>0.5508335565240705</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6334681367895918</v>
+        <v>0.6386008668955013</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>170</v>
@@ -4317,19 +4317,19 @@
         <v>186170</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>161080</v>
+        <v>163366</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>213133</v>
+        <v>211391</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2444712678231319</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2115241939400146</v>
+        <v>0.2145253180129309</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2798782448801259</v>
+        <v>0.2775901810643465</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>464</v>
@@ -4338,19 +4338,19 @@
         <v>490291</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>454221</v>
+        <v>454347</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>524676</v>
+        <v>525317</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3854132675367434</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3570590663424245</v>
+        <v>0.3571582796951427</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4124426294653211</v>
+        <v>0.4129468039835797</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>91665</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>77203</v>
+        <v>77652</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>108240</v>
+        <v>108009</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3434660637345192</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2892784123000253</v>
+        <v>0.2909618316586133</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4055717496547413</v>
+        <v>0.4047066453520454</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>649</v>
@@ -4463,19 +4463,19 @@
         <v>695234</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>659615</v>
+        <v>661676</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>726505</v>
+        <v>725996</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6272497654260585</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5951137437273284</v>
+        <v>0.5969729878786698</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6554628200862594</v>
+        <v>0.6550032672984339</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>738</v>
@@ -4484,19 +4484,19 @@
         <v>786899</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>750997</v>
+        <v>744411</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>822506</v>
+        <v>821655</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5721791763016268</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5460734593071276</v>
+        <v>0.5412845460693833</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5980701135980331</v>
+        <v>0.5974511309861453</v>
       </c>
     </row>
     <row r="25">
@@ -4513,19 +4513,19 @@
         <v>35635</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26590</v>
+        <v>26756</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46842</v>
+        <v>48718</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1335240501859132</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09963150552245421</v>
+        <v>0.1002531588313345</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1755150206621507</v>
+        <v>0.1825434780400289</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>145</v>
@@ -4534,19 +4534,19 @@
         <v>148824</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>124601</v>
+        <v>129168</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>172684</v>
+        <v>172371</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1342713292938871</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1124169348675137</v>
+        <v>0.1165370581605086</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1557981834926602</v>
+        <v>0.1555156237625702</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>180</v>
@@ -4555,19 +4555,19 @@
         <v>184459</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>161450</v>
+        <v>161325</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>213566</v>
+        <v>211019</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1341263135636982</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1173953236788451</v>
+        <v>0.1173047834863633</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1552908570651849</v>
+        <v>0.1534383545238525</v>
       </c>
     </row>
     <row r="26">
@@ -4584,19 +4584,19 @@
         <v>139582</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>123313</v>
+        <v>123284</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>155967</v>
+        <v>155012</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5230098860795676</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4620522531187817</v>
+        <v>0.4619435034777562</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5844038057513515</v>
+        <v>0.5808273367597752</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>249</v>
@@ -4605,19 +4605,19 @@
         <v>264326</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>236003</v>
+        <v>235728</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>295411</v>
+        <v>290345</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2384789052800544</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2129251586699778</v>
+        <v>0.2126767304686367</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.266523860164817</v>
+        <v>0.2619530487894965</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>390</v>
@@ -4626,19 +4626,19 @@
         <v>403908</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>371765</v>
+        <v>371527</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>435020</v>
+        <v>441685</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.293694510134675</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2703221137982095</v>
+        <v>0.2701486826156242</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3163164959065853</v>
+        <v>0.3211628944583723</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>941712</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>888647</v>
+        <v>883105</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>996711</v>
+        <v>997781</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2752006690642008</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2596931974103132</v>
+        <v>0.2580737444480391</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2912733367889445</v>
+        <v>0.2915859466226367</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1871</v>
@@ -4751,19 +4751,19 @@
         <v>2018460</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1957259</v>
+        <v>1959719</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2081034</v>
+        <v>2076579</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5688757185061468</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5516268311548711</v>
+        <v>0.5523203111827704</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5865113353638337</v>
+        <v>0.5852556400258833</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2742</v>
@@ -4772,19 +4772,19 @@
         <v>2960172</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2874630</v>
+        <v>2875832</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3044273</v>
+        <v>3043961</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4246978241647945</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4124250564454478</v>
+        <v>0.4125974662727248</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4367637504781654</v>
+        <v>0.436719109024419</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>436571</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>398908</v>
+        <v>400114</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>478425</v>
+        <v>480126</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1275809648415557</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1165746483617285</v>
+        <v>0.1169269923143922</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1398122866579306</v>
+        <v>0.1403094931220469</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>450</v>
@@ -4822,19 +4822,19 @@
         <v>476784</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>436730</v>
+        <v>436392</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>519396</v>
+        <v>517528</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1343749852399357</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1230864396256049</v>
+        <v>0.1229911388271331</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1463847794793786</v>
+        <v>0.1458583679575752</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>862</v>
@@ -4843,19 +4843,19 @@
         <v>913354</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>857425</v>
+        <v>862405</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>976072</v>
+        <v>971189</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1310395042141829</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1230152605033372</v>
+        <v>0.1237297724365537</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1400376437616139</v>
+        <v>0.1393371353523306</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>2043627</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1981451</v>
+        <v>1980836</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2101249</v>
+        <v>2106865</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5972183660942434</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5790483608415118</v>
+        <v>0.5788685903790795</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6140573637534285</v>
+        <v>0.6156986498219325</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>967</v>
@@ -4893,19 +4893,19 @@
         <v>1052913</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>995316</v>
+        <v>996778</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1109069</v>
+        <v>1107487</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2967492962539174</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2805162357152043</v>
+        <v>0.2809282899030456</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3125761117931237</v>
+        <v>0.3121300986158747</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2889</v>
@@ -4914,19 +4914,19 @@
         <v>3096541</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3008808</v>
+        <v>3009072</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3185906</v>
+        <v>3177304</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4442626716210226</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4316755964854656</v>
+        <v>0.4317134603002905</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.457084041319845</v>
+        <v>0.4558499106935918</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>33523</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23659</v>
+        <v>22997</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46981</v>
+        <v>47467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07812524915559733</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05513710710522517</v>
+        <v>0.0535944634711096</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1094904621383692</v>
+        <v>0.1106227922636408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -5281,19 +5281,19 @@
         <v>60496</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47614</v>
+        <v>47444</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75620</v>
+        <v>75837</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.175381488331477</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1380369026427052</v>
+        <v>0.1375444522831137</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2192289711260977</v>
+        <v>0.2198563841368127</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -5302,19 +5302,19 @@
         <v>94018</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75700</v>
+        <v>75461</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>112818</v>
+        <v>111394</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1214663606444733</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09780037591877694</v>
+        <v>0.09749145150278332</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1457538943780889</v>
+        <v>0.1439150284854734</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>105901</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88075</v>
+        <v>86721</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>125550</v>
+        <v>125298</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2468029083454621</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.205258416202933</v>
+        <v>0.2021042971539041</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2925935251024003</v>
+        <v>0.2920072546454799</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>128</v>
@@ -5352,19 +5352,19 @@
         <v>129616</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>113160</v>
+        <v>110999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>148853</v>
+        <v>147860</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3757663948564847</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3280599927614683</v>
+        <v>0.3217939463528756</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4315361560693769</v>
+        <v>0.4286591067343513</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>226</v>
@@ -5373,19 +5373,19 @@
         <v>235517</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>211710</v>
+        <v>208178</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>264858</v>
+        <v>261229</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3042739857203583</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2735164634380044</v>
+        <v>0.2689533696928947</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3421811214514181</v>
+        <v>0.3374929754251816</v>
       </c>
     </row>
     <row r="6">
@@ -5402,19 +5402,19 @@
         <v>289668</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>268870</v>
+        <v>270271</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>309458</v>
+        <v>310849</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6750718424989405</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6266018235847611</v>
+        <v>0.6298667052962555</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7211924739360983</v>
+        <v>0.7244336774416105</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>145</v>
@@ -5423,19 +5423,19 @@
         <v>154826</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>137054</v>
+        <v>135576</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>174896</v>
+        <v>172840</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4488521168120383</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.397329667469327</v>
+        <v>0.3930470095752889</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5070387736479881</v>
+        <v>0.5010768189716449</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>413</v>
@@ -5444,19 +5444,19 @@
         <v>444494</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>415642</v>
+        <v>415577</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>471858</v>
+        <v>472370</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5742596536351684</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5369856005704197</v>
+        <v>0.5369006554335706</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6096128817093567</v>
+        <v>0.6102745266744952</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>31318</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20214</v>
+        <v>21473</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>44331</v>
+        <v>44757</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08302170582983145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0535854550393892</v>
+        <v>0.05692459054086318</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1175179476770638</v>
+        <v>0.118646531827941</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>61</v>
@@ -5569,19 +5569,19 @@
         <v>63923</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50536</v>
+        <v>49960</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80437</v>
+        <v>79569</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1717094436163617</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1357497432909774</v>
+        <v>0.1342022568974274</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.216068841454714</v>
+        <v>0.2137378329812254</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>89</v>
@@ -5590,19 +5590,19 @@
         <v>95241</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>76913</v>
+        <v>77313</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>114434</v>
+        <v>115018</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1270724895678106</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1026192057018417</v>
+        <v>0.1031521836545512</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1526807818614254</v>
+        <v>0.1534594871738997</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>106898</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>90308</v>
+        <v>87370</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>125060</v>
+        <v>124943</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2833789913133837</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2394007292222702</v>
+        <v>0.231611169862585</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3315248124401602</v>
+        <v>0.3312137755186617</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>112</v>
@@ -5640,19 +5640,19 @@
         <v>116929</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>99736</v>
+        <v>98539</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>134448</v>
+        <v>136947</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3140954992282205</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2679097466700808</v>
+        <v>0.264696006090809</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3611537445609594</v>
+        <v>0.3678681579563275</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>215</v>
@@ -5661,19 +5661,19 @@
         <v>223827</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>201494</v>
+        <v>195913</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>253504</v>
+        <v>249276</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2986357368467882</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2688376343854864</v>
+        <v>0.2613922261705936</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3382307611714915</v>
+        <v>0.3325891744228779</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>239011</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>218362</v>
+        <v>220067</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>257489</v>
+        <v>258701</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6335993028567849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5788613891050776</v>
+        <v>0.5833812514347222</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6825832267802703</v>
+        <v>0.6857977255062286</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>179</v>
@@ -5711,19 +5711,19 @@
         <v>191421</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>173594</v>
+        <v>171715</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>211525</v>
+        <v>210910</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5141950571554178</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4663091182681637</v>
+        <v>0.4612596750516707</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5681992965801558</v>
+        <v>0.5665464776898095</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>402</v>
@@ -5732,19 +5732,19 @@
         <v>430432</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>401526</v>
+        <v>402717</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>455700</v>
+        <v>460242</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5742917735854012</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.535724998925408</v>
+        <v>0.5373137644648749</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6080046925415648</v>
+        <v>0.6140659619499061</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>57089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43783</v>
+        <v>44322</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>71817</v>
+        <v>72178</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1093842542082737</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08388955456258677</v>
+        <v>0.08492211489932822</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.137603066471385</v>
+        <v>0.1382955964801467</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>47</v>
@@ -5857,19 +5857,19 @@
         <v>52154</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40279</v>
+        <v>40349</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64327</v>
+        <v>65209</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3161649529939982</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2441793107910658</v>
+        <v>0.2445987618244727</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3899586078246223</v>
+        <v>0.3953093511725469</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>102</v>
@@ -5878,19 +5878,19 @@
         <v>109243</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>91734</v>
+        <v>91177</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>130463</v>
+        <v>129837</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.159044482225939</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1335538298880448</v>
+        <v>0.132742360873884</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1899377111760543</v>
+        <v>0.1890259149234629</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>129560</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>111790</v>
+        <v>110356</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152053</v>
+        <v>150091</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.248240620843387</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2141931301567249</v>
+        <v>0.2114442536865809</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2913376262829099</v>
+        <v>0.2875774993771262</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -5928,19 +5928,19 @@
         <v>56271</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44059</v>
+        <v>45096</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69606</v>
+        <v>68163</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3411231761221586</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2670897636158071</v>
+        <v>0.2733795772953001</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4219611803543443</v>
+        <v>0.413213034242767</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>183</v>
@@ -5949,19 +5949,19 @@
         <v>185831</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>164471</v>
+        <v>163765</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>209761</v>
+        <v>211009</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2705471944312195</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2394495932522295</v>
+        <v>0.23842210536078</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3053860714639678</v>
+        <v>0.3072029761595439</v>
       </c>
     </row>
     <row r="14">
@@ -5978,19 +5978,19 @@
         <v>335265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>311209</v>
+        <v>312626</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>356716</v>
+        <v>357589</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6423751249483393</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5962840271098206</v>
+        <v>0.5989999023585768</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6834758654070335</v>
+        <v>0.6851484968501043</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -5999,19 +5999,19 @@
         <v>56533</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45087</v>
+        <v>45158</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70504</v>
+        <v>70514</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3427118708838432</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2733260092525666</v>
+        <v>0.2737520540324693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4274057511392013</v>
+        <v>0.4274655723215362</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>369</v>
@@ -6020,19 +6020,19 @@
         <v>391798</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>366036</v>
+        <v>364359</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>420138</v>
+        <v>420774</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5704083233428415</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.532902098672442</v>
+        <v>0.530461028774133</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6116692332790229</v>
+        <v>0.6125942506942746</v>
       </c>
     </row>
     <row r="15">
@@ -6124,19 +6124,19 @@
         <v>155127</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>132562</v>
+        <v>133590</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>178590</v>
+        <v>176742</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1350487027337202</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1154045764586494</v>
+        <v>0.1162992147262017</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1554745388433245</v>
+        <v>0.1538663189697772</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>220</v>
@@ -6145,19 +6145,19 @@
         <v>233731</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>208750</v>
+        <v>206328</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>263413</v>
+        <v>260702</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2830099162773692</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2527620483488308</v>
+        <v>0.2498288457418502</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3189493816459047</v>
+        <v>0.3156668118922948</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>365</v>
@@ -6166,19 +6166,19 @@
         <v>388858</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>354440</v>
+        <v>353463</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>424066</v>
+        <v>425180</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1969349811026452</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1795039310516006</v>
+        <v>0.1790095163462888</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2147655782216656</v>
+        <v>0.2153301504891429</v>
       </c>
     </row>
     <row r="17">
@@ -6195,19 +6195,19 @@
         <v>334750</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>304105</v>
+        <v>305218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>364594</v>
+        <v>362579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2914227265935996</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.264743992035239</v>
+        <v>0.2657135131197833</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3174035342339604</v>
+        <v>0.3156499952254844</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>285</v>
@@ -6216,19 +6216,19 @@
         <v>292659</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>266752</v>
+        <v>265952</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>321992</v>
+        <v>320998</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.354362322373177</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3229930177928956</v>
+        <v>0.322024196154224</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3898788270565754</v>
+        <v>0.3886757615062915</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>613</v>
@@ -6237,19 +6237,19 @@
         <v>627409</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>587511</v>
+        <v>587733</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>672716</v>
+        <v>673977</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3177478509390652</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.297541770505499</v>
+        <v>0.2976539996554542</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3406929741530577</v>
+        <v>0.341331729389013</v>
       </c>
     </row>
     <row r="18">
@@ -6266,19 +6266,19 @@
         <v>658798</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>629658</v>
+        <v>626756</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>695393</v>
+        <v>691186</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5735285706726803</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5481605098860494</v>
+        <v>0.5456341910868704</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6053874990483266</v>
+        <v>0.601724447871552</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>293</v>
@@ -6287,19 +6287,19 @@
         <v>299486</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>272906</v>
+        <v>271892</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>329183</v>
+        <v>328499</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3626277613494539</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3304448548433002</v>
+        <v>0.3292170397482077</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3985869271641498</v>
+        <v>0.3977582427066837</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>922</v>
@@ -6308,19 +6308,19 @@
         <v>958283</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>912417</v>
+        <v>914093</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1000851</v>
+        <v>1002654</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4853171679582896</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4620883957690806</v>
+        <v>0.4629370661795175</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5068754307948992</v>
+        <v>0.5077882359631051</v>
       </c>
     </row>
     <row r="19">
@@ -6412,19 +6412,19 @@
         <v>93450</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>75420</v>
+        <v>76161</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>112787</v>
+        <v>112007</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1505537057237511</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1215069031379329</v>
+        <v>0.122701321782491</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1817081963444644</v>
+        <v>0.1804512819506213</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>236</v>
@@ -6433,19 +6433,19 @@
         <v>257698</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>229484</v>
+        <v>233064</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>283272</v>
+        <v>283865</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3501347486697854</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3118001627410709</v>
+        <v>0.3166645017224787</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3848819580728878</v>
+        <v>0.3856887304197902</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>322</v>
@@ -6454,19 +6454,19 @@
         <v>351147</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>318930</v>
+        <v>320853</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>386363</v>
+        <v>384919</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2588242779650525</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.235077237131023</v>
+        <v>0.2364944932487754</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2847808002376998</v>
+        <v>0.283716491460227</v>
       </c>
     </row>
     <row r="21">
@@ -6483,19 +6483,19 @@
         <v>210780</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>188422</v>
+        <v>188603</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>234119</v>
+        <v>237876</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3395814104566843</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3035610796569725</v>
+        <v>0.3038524000241425</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3771814657871336</v>
+        <v>0.3832353797580566</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>278</v>
@@ -6504,19 +6504,19 @@
         <v>287376</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>260680</v>
+        <v>261536</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>312558</v>
+        <v>313925</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3904582272117028</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3541868132561889</v>
+        <v>0.3553491596710208</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4246730127424981</v>
+        <v>0.4265310098574335</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>488</v>
@@ -6525,19 +6525,19 @@
         <v>498156</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>462803</v>
+        <v>462853</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>531095</v>
+        <v>533806</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3671815371148617</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3411237135202416</v>
+        <v>0.3411605307877583</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3914605580389527</v>
+        <v>0.3934583134794324</v>
       </c>
     </row>
     <row r="22">
@@ -6554,19 +6554,19 @@
         <v>316476</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>293177</v>
+        <v>289061</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>341249</v>
+        <v>341391</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5098648838195646</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4723289709324953</v>
+        <v>0.4656974189523205</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5497751862401045</v>
+        <v>0.5500038716135809</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>183</v>
@@ -6575,19 +6575,19 @@
         <v>190923</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>166927</v>
+        <v>168582</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>213708</v>
+        <v>215235</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2594070241185119</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2268043050426311</v>
+        <v>0.2290524937410128</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2903655854617184</v>
+        <v>0.2924407921827754</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>484</v>
@@ -6596,19 +6596,19 @@
         <v>507399</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>469918</v>
+        <v>472026</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>543569</v>
+        <v>542105</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3739941849200858</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3463678390342604</v>
+        <v>0.3479219821228716</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4006543992462672</v>
+        <v>0.3995759039661682</v>
       </c>
     </row>
     <row r="23">
@@ -6700,19 +6700,19 @@
         <v>58397</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>45544</v>
+        <v>46174</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>75145</v>
+        <v>75252</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2041508520266223</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1592185663314691</v>
+        <v>0.1614180712598915</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2626991181988297</v>
+        <v>0.2630726295416833</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>397</v>
@@ -6721,19 +6721,19 @@
         <v>448600</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>416888</v>
+        <v>416553</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>481487</v>
+        <v>484201</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4149757018057553</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3856410144339655</v>
+        <v>0.3853315324481502</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4453983743939716</v>
+        <v>0.4479083590006228</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>450</v>
@@ -6742,19 +6742,19 @@
         <v>506997</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>471185</v>
+        <v>470856</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>542166</v>
+        <v>545925</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3708622048382998</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3446657287341302</v>
+        <v>0.3444250404120183</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3965875485239854</v>
+        <v>0.3993374554914671</v>
       </c>
     </row>
     <row r="25">
@@ -6771,19 +6771,19 @@
         <v>65625</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51721</v>
+        <v>51187</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>81333</v>
+        <v>79339</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2294175613158584</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1808101332817437</v>
+        <v>0.1789441007433442</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2843310775668932</v>
+        <v>0.2773619408724826</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>348</v>
@@ -6792,19 +6792,19 @@
         <v>376663</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>344062</v>
+        <v>343756</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>410638</v>
+        <v>408024</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3484307890924047</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3182739144467353</v>
+        <v>0.3179907034398259</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3798595224560954</v>
+        <v>0.3774418751667043</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>410</v>
@@ -6813,19 +6813,19 @@
         <v>442288</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>407084</v>
+        <v>406186</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>479279</v>
+        <v>478243</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3235281760080936</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2977768952361416</v>
+        <v>0.2971198872616196</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3505864719142708</v>
+        <v>0.3498287860085805</v>
       </c>
     </row>
     <row r="26">
@@ -6842,19 +6842,19 @@
         <v>162028</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>143997</v>
+        <v>145119</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>178563</v>
+        <v>179923</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5664315866575194</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.50339951159882</v>
+        <v>0.507320976501909</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.624236705465369</v>
+        <v>0.6289928226621156</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>246</v>
@@ -6863,19 +6863,19 @@
         <v>255764</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>228069</v>
+        <v>224444</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>283766</v>
+        <v>285687</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.23659350910184</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2109747955387957</v>
+        <v>0.2076216148045948</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2624966584933602</v>
+        <v>0.2642741752379166</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>402</v>
@@ -6884,19 +6884,19 @@
         <v>417792</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>384122</v>
+        <v>384451</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>450285</v>
+        <v>454557</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3056096191536066</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2809806709909849</v>
+        <v>0.2812215243508934</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3293782112263232</v>
+        <v>0.3325029180464782</v>
       </c>
     </row>
     <row r="27">
@@ -6988,19 +6988,19 @@
         <v>428904</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>390977</v>
+        <v>388401</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>471843</v>
+        <v>467110</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.126757313555106</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1155483177502636</v>
+        <v>0.1147871669832442</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1394472514047156</v>
+        <v>0.1380486464149626</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1018</v>
@@ -7009,19 +7009,19 @@
         <v>1116601</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1063120</v>
+        <v>1061499</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1174050</v>
+        <v>1176888</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3167602196146025</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3015886929451651</v>
+        <v>0.3011287843495198</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3330576163011781</v>
+        <v>0.3338625469371359</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1415</v>
@@ -7030,19 +7030,19 @@
         <v>1545505</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1470837</v>
+        <v>1478719</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1616038</v>
+        <v>1618072</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2237031976904686</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2128954076269358</v>
+        <v>0.2140361974761565</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2339124009644819</v>
+        <v>0.2342068789011748</v>
       </c>
     </row>
     <row r="29">
@@ -7059,19 +7059,19 @@
         <v>953515</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>901921</v>
+        <v>903838</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1003626</v>
+        <v>1009408</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2817994656165452</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2665515388173526</v>
+        <v>0.2671182229428315</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2966092521294147</v>
+        <v>0.2983181527706413</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1204</v>
@@ -7080,19 +7080,19 @@
         <v>1259514</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1198303</v>
+        <v>1198126</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1315211</v>
+        <v>1320218</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3573021814218258</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3399377372799101</v>
+        <v>0.3398873875106705</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3731024492842835</v>
+        <v>0.3745228187720577</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2135</v>
@@ -7101,19 +7101,19 @@
         <v>2213029</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2138097</v>
+        <v>2133338</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2283773</v>
+        <v>2298012</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3203234950125582</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.309477533525651</v>
+        <v>0.3087887407026377</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3305633776690792</v>
+        <v>0.3326243743798099</v>
       </c>
     </row>
     <row r="30">
@@ -7130,19 +7130,19 @@
         <v>2001245</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1947138</v>
+        <v>1944644</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2054969</v>
+        <v>2062435</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5914432208283488</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5754524108626299</v>
+        <v>0.5747154667170031</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6073207188187766</v>
+        <v>0.6095272718868915</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1098</v>
@@ -7151,19 +7151,19 @@
         <v>1148952</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1098719</v>
+        <v>1092751</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1217353</v>
+        <v>1203897</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3259375989635717</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3116874115448548</v>
+        <v>0.3099943873512903</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3453417571728905</v>
+        <v>0.3415245372370889</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2992</v>
@@ -7172,19 +7172,19 @@
         <v>3150197</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3060221</v>
+        <v>3063767</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3226885</v>
+        <v>3247101</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4559733072969731</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4429497769520203</v>
+        <v>0.4434631225279622</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4670735277217636</v>
+        <v>0.4699996360308565</v>
       </c>
     </row>
     <row r="31">
@@ -7518,19 +7518,19 @@
         <v>69565</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55242</v>
+        <v>54913</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87322</v>
+        <v>87238</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1263395204713086</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.100327649789891</v>
+        <v>0.099729501874018</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1585884267649247</v>
+        <v>0.1584368908092327</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>173</v>
@@ -7539,19 +7539,19 @@
         <v>116404</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101900</v>
+        <v>100921</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>135039</v>
+        <v>132737</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2383310818414591</v>
+        <v>0.238331081841459</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2086348133866273</v>
+        <v>0.2066306906566685</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2764862395227149</v>
+        <v>0.2717721581712811</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>245</v>
@@ -7560,19 +7560,19 @@
         <v>185968</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>163545</v>
+        <v>162959</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>208408</v>
+        <v>211713</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1789827957699004</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1574016925224577</v>
+        <v>0.1568378599096259</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.200579823504944</v>
+        <v>0.2037605335615643</v>
       </c>
     </row>
     <row r="5">
@@ -7589,19 +7589,19 @@
         <v>110570</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>93036</v>
+        <v>92054</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130162</v>
+        <v>129788</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2008114603540309</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1689669805366835</v>
+        <v>0.1671838385279296</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2363923758565214</v>
+        <v>0.2357141188352451</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>187</v>
@@ -7610,19 +7610,19 @@
         <v>134911</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>116443</v>
+        <v>115936</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>151518</v>
+        <v>151892</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2762245917193037</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2384125105516786</v>
+        <v>0.2373737175443138</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3102262208283713</v>
+        <v>0.3109921851471373</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>306</v>
@@ -7631,19 +7631,19 @@
         <v>245482</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>220023</v>
+        <v>218300</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>272405</v>
+        <v>270589</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2362605083628308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2117585721477245</v>
+        <v>0.2100997772333038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2621723008594072</v>
+        <v>0.2604244912313928</v>
       </c>
     </row>
     <row r="6">
@@ -7660,19 +7660,19 @@
         <v>370483</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>346061</v>
+        <v>345542</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>392019</v>
+        <v>392539</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6728490191746604</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6284956807212028</v>
+        <v>0.6275524515150205</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7119626081356014</v>
+        <v>0.7129065158022245</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>326</v>
@@ -7681,19 +7681,19 @@
         <v>237096</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>218640</v>
+        <v>216411</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>256518</v>
+        <v>256514</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4854443264392372</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4476563808303708</v>
+        <v>0.4430911811237806</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.525208786522123</v>
+        <v>0.5252008931359332</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>689</v>
@@ -7702,19 +7702,19 @@
         <v>607579</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>577627</v>
+        <v>577040</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>641388</v>
+        <v>637024</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5847566958672689</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5559300500294846</v>
+        <v>0.5553648763460479</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6172958791228589</v>
+        <v>0.6130959352219499</v>
       </c>
     </row>
     <row r="7">
@@ -7806,19 +7806,19 @@
         <v>76692</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61080</v>
+        <v>60413</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>93619</v>
+        <v>94670</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1587120061937297</v>
+        <v>0.1587120061937298</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1264036380332515</v>
+        <v>0.1250245719161514</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1937441023939001</v>
+        <v>0.1959179670841108</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>133</v>
@@ -7827,19 +7827,19 @@
         <v>89572</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76473</v>
+        <v>75667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>104331</v>
+        <v>106398</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2124128471407283</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1813491002904252</v>
+        <v>0.1794399263195723</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2474135832486035</v>
+        <v>0.2523158112791646</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>213</v>
@@ -7848,19 +7848,19 @@
         <v>166263</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>145320</v>
+        <v>144313</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>188690</v>
+        <v>191093</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1837368408847625</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1605923029899009</v>
+        <v>0.1594794023939123</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2085201667980974</v>
+        <v>0.2111764912999595</v>
       </c>
     </row>
     <row r="9">
@@ -7877,19 +7877,19 @@
         <v>131284</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>110362</v>
+        <v>110547</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>153356</v>
+        <v>151024</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2716911910175105</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2283927188080327</v>
+        <v>0.2287758748062306</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3173670093211519</v>
+        <v>0.3125417362031172</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>166</v>
@@ -7898,19 +7898,19 @@
         <v>122521</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>106821</v>
+        <v>107640</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>138252</v>
+        <v>140066</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2905506378052019</v>
+        <v>0.2905506378052018</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2533180114203482</v>
+        <v>0.2552602899599251</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3278551610389316</v>
+        <v>0.3321565477438473</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>293</v>
@@ -7919,19 +7919,19 @@
         <v>253806</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>228502</v>
+        <v>228252</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>283019</v>
+        <v>280442</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2804797784940476</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2525165010320026</v>
+        <v>0.2522404403799171</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3127625404426166</v>
+        <v>0.3099154950513606</v>
       </c>
     </row>
     <row r="10">
@@ -7948,19 +7948,19 @@
         <v>275236</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>251790</v>
+        <v>250710</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>298622</v>
+        <v>300006</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5695968027887596</v>
+        <v>0.5695968027887598</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5210750872328387</v>
+        <v>0.5188397873756128</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6179943673000758</v>
+        <v>0.620858396370622</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>289</v>
@@ -7969,19 +7969,19 @@
         <v>209594</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>193074</v>
+        <v>192078</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>229072</v>
+        <v>226992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4970365150540699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4578608461485728</v>
+        <v>0.4554979156875977</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5432278280079791</v>
+        <v>0.5382959745767411</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>563</v>
@@ -7990,19 +7990,19 @@
         <v>484830</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>454245</v>
+        <v>454487</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>513669</v>
+        <v>512253</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5357833806211899</v>
+        <v>0.5357833806211898</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5019838972389725</v>
+        <v>0.5022512553713261</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.567653758704446</v>
+        <v>0.5660882310010094</v>
       </c>
     </row>
     <row r="11">
@@ -8094,19 +8094,19 @@
         <v>89179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>72639</v>
+        <v>72522</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108476</v>
+        <v>107085</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1890929808890711</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.154023831555304</v>
+        <v>0.1537747914303434</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2300102502297524</v>
+        <v>0.2270608725443826</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>98</v>
@@ -8115,19 +8115,19 @@
         <v>60666</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50442</v>
+        <v>49412</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72041</v>
+        <v>71702</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3253468062315075</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.270516981533485</v>
+        <v>0.2649911618383773</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3863491131436911</v>
+        <v>0.3845307987005068</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>191</v>
@@ -8136,19 +8136,19 @@
         <v>149845</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>132184</v>
+        <v>131196</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>173472</v>
+        <v>173146</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2277006613522925</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.200863077553363</v>
+        <v>0.1993627791905218</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2636039492145141</v>
+        <v>0.2631081698608363</v>
       </c>
     </row>
     <row r="13">
@@ -8165,19 +8165,19 @@
         <v>108423</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90922</v>
+        <v>91901</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126521</v>
+        <v>128071</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2298979670230621</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1927902840340665</v>
+        <v>0.1948655870860685</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2682725133583323</v>
+        <v>0.271559855325453</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -8186,19 +8186,19 @@
         <v>56681</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47076</v>
+        <v>46161</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67891</v>
+        <v>66377</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3039734938207291</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2524609266978757</v>
+        <v>0.2475536627937911</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3640904888442587</v>
+        <v>0.3559716469040268</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -8207,19 +8207,19 @@
         <v>165104</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>146845</v>
+        <v>144119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189549</v>
+        <v>186869</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2508873540113657</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2231414263640724</v>
+        <v>0.2189991529338383</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2880337478389664</v>
+        <v>0.2839619636758045</v>
       </c>
     </row>
     <row r="14">
@@ -8236,19 +8236,19 @@
         <v>274011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>253578</v>
+        <v>251422</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>296786</v>
+        <v>294421</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5810090520878669</v>
+        <v>0.5810090520878668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5376829936296145</v>
+        <v>0.5331123132002618</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6293007234478221</v>
+        <v>0.6242861217801349</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -8257,19 +8257,19 @@
         <v>69120</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>58501</v>
+        <v>58545</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>80927</v>
+        <v>80339</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3706796999477633</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3137336700660205</v>
+        <v>0.3139680526808741</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4340040094999479</v>
+        <v>0.4308491549350897</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>380</v>
@@ -8278,19 +8278,19 @@
         <v>343130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>317630</v>
+        <v>318653</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>365747</v>
+        <v>368370</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.521411984636342</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4826624350088508</v>
+        <v>0.4842167953523597</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5557800396014062</v>
+        <v>0.5597658150526776</v>
       </c>
     </row>
     <row r="15">
@@ -8382,19 +8382,19 @@
         <v>183342</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>158523</v>
+        <v>160579</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>211189</v>
+        <v>208478</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1626374023720653</v>
+        <v>0.1626374023720652</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1406216486257131</v>
+        <v>0.1424456830704495</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.187340107717505</v>
+        <v>0.1849350480650703</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>418</v>
@@ -8403,19 +8403,19 @@
         <v>264842</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>244217</v>
+        <v>239713</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>291012</v>
+        <v>286320</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3081248943543385</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2841286519159389</v>
+        <v>0.2788887401958969</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3385715565642413</v>
+        <v>0.3331121033539468</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>613</v>
@@ -8424,19 +8424,19 @@
         <v>448184</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>414871</v>
+        <v>413265</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>485983</v>
+        <v>481796</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2255771503844702</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2088104130133842</v>
+        <v>0.2080020438459416</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2446019649442653</v>
+        <v>0.2424945277641209</v>
       </c>
     </row>
     <row r="17">
@@ -8453,19 +8453,19 @@
         <v>298003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>267701</v>
+        <v>268641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>330890</v>
+        <v>331035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2643504049664478</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2374703559376942</v>
+        <v>0.2383039160004761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2935232872088137</v>
+        <v>0.2936519379417707</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>393</v>
@@ -8474,19 +8474,19 @@
         <v>274066</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>250526</v>
+        <v>254007</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>294632</v>
+        <v>299614</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3188563638835464</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2914687757771648</v>
+        <v>0.2955191902072746</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3427833994795681</v>
+        <v>0.3485792568875058</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>700</v>
@@ -8495,19 +8495,19 @@
         <v>572070</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>533647</v>
+        <v>534312</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>611050</v>
+        <v>615062</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2879303792492864</v>
+        <v>0.2879303792492865</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2685919287773967</v>
+        <v>0.2689262564518488</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3075498446514456</v>
+        <v>0.3095689942030532</v>
       </c>
     </row>
     <row r="18">
@@ -8524,19 +8524,19 @@
         <v>645958</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>608725</v>
+        <v>609933</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>681024</v>
+        <v>681854</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5730121926614868</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5399832969173453</v>
+        <v>0.5410549784484525</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6041180579066351</v>
+        <v>0.6048539508856425</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>417</v>
@@ -8545,19 +8545,19 @@
         <v>320620</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>296137</v>
+        <v>293745</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>345053</v>
+        <v>346252</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3730187417621151</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3445335829906381</v>
+        <v>0.3417515713014145</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.401444679691748</v>
+        <v>0.4028389588992339</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1029</v>
@@ -8566,19 +8566,19 @@
         <v>966579</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>921959</v>
+        <v>920077</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1009420</v>
+        <v>1009476</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4864924703662434</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4640344599292167</v>
+        <v>0.4630870526155231</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5080548397068303</v>
+        <v>0.508083120483428</v>
       </c>
     </row>
     <row r="19">
@@ -8670,19 +8670,19 @@
         <v>116176</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>96112</v>
+        <v>96803</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141278</v>
+        <v>136555</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2052123537192666</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1697711264466727</v>
+        <v>0.170990730518427</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2495518671353673</v>
+        <v>0.2412083800401393</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>471</v>
@@ -8691,19 +8691,19 @@
         <v>276382</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257524</v>
+        <v>255873</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>301454</v>
+        <v>299370</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3335242514809704</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3107671185324348</v>
+        <v>0.3087748376029234</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3637794862441879</v>
+        <v>0.3612641805407531</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>581</v>
@@ -8712,19 +8712,19 @@
         <v>392559</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>359878</v>
+        <v>362765</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>424484</v>
+        <v>422115</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2814443803105814</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2580137852509179</v>
+        <v>0.260084147406526</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3043331893852896</v>
+        <v>0.3026345475120471</v>
       </c>
     </row>
     <row r="21">
@@ -8741,19 +8741,19 @@
         <v>153258</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>133433</v>
+        <v>131789</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>178173</v>
+        <v>178266</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2707121177369775</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2356934199497175</v>
+        <v>0.2327893228572551</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.314722816468645</v>
+        <v>0.3148868562882779</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>490</v>
@@ -8762,19 +8762,19 @@
         <v>319486</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>294908</v>
+        <v>295321</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>340719</v>
+        <v>341391</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3855396352662609</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.355880163884257</v>
+        <v>0.3563790181990411</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4111624892329191</v>
+        <v>0.411974191230784</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>651</v>
@@ -8783,19 +8783,19 @@
         <v>472744</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>441228</v>
+        <v>436026</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>507890</v>
+        <v>505120</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.3389328714036697</v>
+        <v>0.3389328714036698</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3163379196372295</v>
+        <v>0.3126085017446472</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3641312615945763</v>
+        <v>0.3621453761438727</v>
       </c>
     </row>
     <row r="22">
@@ -8812,19 +8812,19 @@
         <v>296694</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>271041</v>
+        <v>268514</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>321537</v>
+        <v>323060</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5240755285437561</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4787622795925653</v>
+        <v>0.4742996271487996</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5679585118932151</v>
+        <v>0.5706484494354614</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>326</v>
@@ -8833,19 +8833,19 @@
         <v>232804</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>212691</v>
+        <v>210461</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>256797</v>
+        <v>252448</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2809361132527688</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2566645653500028</v>
+        <v>0.2539743885281033</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.309889473570858</v>
+        <v>0.3046415554367656</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>600</v>
@@ -8854,19 +8854,19 @@
         <v>529498</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>492535</v>
+        <v>497265</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>566223</v>
+        <v>568284</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3796227482857487</v>
+        <v>0.3796227482857488</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3531224313482053</v>
+        <v>0.356513825301013</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4059530538954449</v>
+        <v>0.4074305185083538</v>
       </c>
     </row>
     <row r="23">
@@ -8958,19 +8958,19 @@
         <v>57757</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38377</v>
+        <v>40028</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>84144</v>
+        <v>82698</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.243468115035728</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1617728421769068</v>
+        <v>0.1687320854928707</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3546953886296776</v>
+        <v>0.3486030238147553</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>488</v>
@@ -8979,19 +8979,19 @@
         <v>334584</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>305542</v>
+        <v>308327</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>361844</v>
+        <v>362122</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.39724752292283</v>
+        <v>0.3972475229228299</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3627660633481351</v>
+        <v>0.3660727791469429</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.429613347185676</v>
+        <v>0.42994318399225</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>516</v>
@@ -9000,19 +9000,19 @@
         <v>392341</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>356257</v>
+        <v>355573</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>427510</v>
+        <v>426896</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3634528644079809</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3300263252942047</v>
+        <v>0.329392494493491</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3960327145065939</v>
+        <v>0.3954635832606265</v>
       </c>
     </row>
     <row r="25">
@@ -9029,19 +9029,19 @@
         <v>76652</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>55043</v>
+        <v>56643</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99982</v>
+        <v>99613</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3231171459582104</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2320270216948181</v>
+        <v>0.2387690328784569</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4214599038388956</v>
+        <v>0.419902586741121</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>434</v>
@@ -9050,19 +9050,19 @@
         <v>303667</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>277651</v>
+        <v>277604</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>328350</v>
+        <v>332485</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3605405774194225</v>
+        <v>0.3605405774194226</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3296522077348418</v>
+        <v>0.3295965289852693</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3898461160809035</v>
+        <v>0.394755397128395</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>472</v>
@@ -9071,19 +9071,19 @@
         <v>380319</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>349494</v>
+        <v>348725</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>417018</v>
+        <v>415016</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3523163807986759</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3237607736529316</v>
+        <v>0.3230488822862486</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3863135030595652</v>
+        <v>0.3844581701992821</v>
       </c>
     </row>
     <row r="26">
@@ -9100,19 +9100,19 @@
         <v>102818</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>80503</v>
+        <v>78073</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>127627</v>
+        <v>125144</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4334147390060616</v>
+        <v>0.4334147390060615</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3393477801173401</v>
+        <v>0.3291032399752148</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5379919193648416</v>
+        <v>0.5275264238871166</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>234</v>
@@ -9121,19 +9121,19 @@
         <v>204004</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>179413</v>
+        <v>177016</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>230652</v>
+        <v>230702</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2422118996577475</v>
+        <v>0.2422118996577474</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2130150437547285</v>
+        <v>0.2101691629926479</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2738506023721969</v>
+        <v>0.2739104688926854</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>280</v>
@@ -9142,19 +9142,19 @@
         <v>306822</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>274351</v>
+        <v>272906</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>348843</v>
+        <v>346275</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2842307547933431</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2541503352943016</v>
+        <v>0.25281203310369</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3231580862249771</v>
+        <v>0.3207786505297898</v>
       </c>
     </row>
     <row r="27">
@@ -9246,19 +9246,19 @@
         <v>592710</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>548677</v>
+        <v>543255</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>645446</v>
+        <v>639236</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1724950445023105</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1596800456752001</v>
+        <v>0.1581021637279984</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1878426727907188</v>
+        <v>0.1860353820361707</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1781</v>
@@ -9267,19 +9267,19 @@
         <v>1142450</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1091716</v>
+        <v>1096593</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1191015</v>
+        <v>1191544</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3149829783775576</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3009951509734715</v>
+        <v>0.3023397495033964</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3283728380967617</v>
+        <v>0.3285185301230615</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2359</v>
@@ -9288,19 +9288,19 @@
         <v>1735160</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1669007</v>
+        <v>1667303</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1813600</v>
+        <v>1800114</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2456647690109592</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2362986967113443</v>
+        <v>0.2360575009747355</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.256770328816972</v>
+        <v>0.2548609580528894</v>
       </c>
     </row>
     <row r="29">
@@ -9317,19 +9317,19 @@
         <v>878191</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>823323</v>
+        <v>822534</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>933700</v>
+        <v>936282</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2555776524122567</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2396096885452292</v>
+        <v>0.2393799653627031</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2717323818793088</v>
+        <v>0.2724837201413469</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1758</v>
@@ -9338,19 +9338,19 @@
         <v>1211333</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1164096</v>
+        <v>1161949</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1265662</v>
+        <v>1260985</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3339745870956253</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3209511114918296</v>
+        <v>0.3203590659759295</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3489535762187295</v>
+        <v>0.3476642310419586</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2627</v>
@@ -9359,19 +9359,19 @@
         <v>2089523</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2011150</v>
+        <v>2012267</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2154123</v>
+        <v>2157474</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2958356725624184</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2847395514551375</v>
+        <v>0.2848976308704902</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3049816636165574</v>
+        <v>0.3054561449548597</v>
       </c>
     </row>
     <row r="30">
@@ -9388,19 +9388,19 @@
         <v>1965200</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1901033</v>
+        <v>1904746</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2025879</v>
+        <v>2029805</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5719273030854329</v>
+        <v>0.5719273030854328</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5532530407218632</v>
+        <v>0.5543335495637577</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5895866832291577</v>
+        <v>0.5907290264778871</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1694</v>
@@ -9409,19 +9409,19 @@
         <v>1273238</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1223121</v>
+        <v>1224091</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1324812</v>
+        <v>1324011</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3510424345268171</v>
+        <v>0.3510424345268172</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3372246268344511</v>
+        <v>0.3374919877677899</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.365261795889093</v>
+        <v>0.3650409310517254</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3541</v>
@@ -9430,19 +9430,19 @@
         <v>3238438</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3155046</v>
+        <v>3159309</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3321926</v>
+        <v>3329494</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4584995584266224</v>
+        <v>0.4584995584266225</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4466928227526829</v>
+        <v>0.4472964149662388</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4703197811287134</v>
+        <v>0.4713912545529153</v>
       </c>
     </row>
     <row r="31">
